--- a/DadosBiod.xlsx
+++ b/DadosBiod.xlsx
@@ -12,6 +12,9 @@
     <sheet name="Dados categorizados" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Gráficos" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Dados brutos'!$D$1:$D$186</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -1014,19 +1017,19 @@
     <t xml:space="preserve">Sanharó</t>
   </si>
   <si>
+    <t xml:space="preserve">2612455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Cruz</t>
+  </si>
+  <si>
     <t xml:space="preserve">2612471</t>
   </si>
   <si>
-    <t xml:space="preserve">Santa Cruz</t>
+    <t xml:space="preserve">Santa Cruz da Baixa Verde</t>
   </si>
   <si>
     <t xml:space="preserve">2612505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Cruz da Baixa Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2612455</t>
   </si>
   <si>
     <t xml:space="preserve">Santa Cruz do Capibaribe</t>
@@ -1557,7 +1560,22 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FF272727"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1657,7 +1675,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2000,11 +2018,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="89814565"/>
-        <c:axId val="45278808"/>
+        <c:axId val="77027339"/>
+        <c:axId val="99301722"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89814565"/>
+        <c:axId val="77027339"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2036,14 +2054,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45278808"/>
+        <c:crossAx val="99301722"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45278808"/>
+        <c:axId val="99301722"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2082,7 +2100,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89814565"/>
+        <c:crossAx val="77027339"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2134,7 +2152,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2572,11 +2590,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="6948433"/>
-        <c:axId val="31908580"/>
+        <c:axId val="53600569"/>
+        <c:axId val="16635192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="6948433"/>
+        <c:axId val="53600569"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2608,7 +2626,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31908580"/>
+        <c:crossAx val="16635192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2616,7 +2634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31908580"/>
+        <c:axId val="16635192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2655,7 +2673,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6948433"/>
+        <c:crossAx val="53600569"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2707,7 +2725,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3145,11 +3163,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="84823832"/>
-        <c:axId val="48785572"/>
+        <c:axId val="34792201"/>
+        <c:axId val="92240230"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84823832"/>
+        <c:axId val="34792201"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3181,7 +3199,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48785572"/>
+        <c:crossAx val="92240230"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3189,7 +3207,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48785572"/>
+        <c:axId val="92240230"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3228,7 +3246,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84823832"/>
+        <c:crossAx val="34792201"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3281,6 +3299,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3291,9 +3313,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>265680</xdr:colOff>
+      <xdr:colOff>265320</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3302,7 +3324,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17223840" y="7138080"/>
-        <a:ext cx="4525200" cy="2242800"/>
+        <a:ext cx="4524840" cy="2242440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3321,9 +3343,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>52560</xdr:colOff>
+      <xdr:colOff>52200</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3332,7 +3354,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17277120" y="2929680"/>
-        <a:ext cx="4258800" cy="1970640"/>
+        <a:ext cx="4258440" cy="1970280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3351,9 +3373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>45000</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3362,7 +3384,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17269560" y="4916880"/>
-        <a:ext cx="4258800" cy="1970640"/>
+        <a:ext cx="4258440" cy="1970280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3380,10 +3402,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ186"/>
+  <dimension ref="A1:AJ196"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA28" activeCellId="0" sqref="AA28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B194" activeCellId="0" sqref="B194:B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23349,7 +23371,17 @@
         <v>0.48</v>
       </c>
     </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="11"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B195" s="11"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B196" s="11"/>
+    </row>
   </sheetData>
+  <autoFilter ref="D1:D186"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -23357,6 +23389,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23368,7 +23401,7 @@
   <dimension ref="A1:L186"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="topLeft" activeCell="A30" activeCellId="1" sqref="B194:B196 A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28756,7 +28789,7 @@
         <v>4343</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C143" s="11" t="s">
         <v>68</v>
@@ -28794,7 +28827,7 @@
         <v>4344</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C144" s="11" t="s">
         <v>40</v>
@@ -28832,7 +28865,7 @@
         <v>4342</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C145" s="11" t="s">
         <v>93</v>
@@ -30425,19 +30458,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:L186">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND(E2&lt;=0.2)</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(E2&gt;0.2,E2&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(E2&gt;0.4,E2&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND(E2&gt;0.6,E2&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND(E2&gt;0.8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30459,7 +30492,7 @@
   <dimension ref="A1:Y186"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R17" activeCellId="0" sqref="R17"/>
+      <selection pane="topLeft" activeCell="R17" activeCellId="1" sqref="B194:B196 R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31658,7 +31691,7 @@
         <v>4342</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>93</v>
@@ -32669,7 +32702,7 @@
         <v>4344</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>40</v>
@@ -33285,7 +33318,7 @@
         <v>4343</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>68</v>
